--- a/Data/innit_Pos.xlsx
+++ b/Data/innit_Pos.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p70071137\Documents\project 12-2223\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirap\Documents\Dev\Git\Toon09-Crew17_spaceMission\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50ADD98-DBA1-4DA5-A9F4-2746A52AA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13160" windowHeight="6830"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -170,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,25 +527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
@@ -556,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +595,7 @@
         <v>1.9885E+30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,7 +622,7 @@
         <v>3.3019999999999999E+23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -637,7 +649,7 @@
         <v>4.8684999999999998E+24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -664,7 +676,7 @@
         <v>5.9721900000000004E+24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -691,7 +703,7 @@
         <v>7.3489999999999999E+22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -718,7 +730,7 @@
         <v>6.417099999999999E+23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -745,7 +757,7 @@
         <v>1.89818722E+27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -772,7 +784,7 @@
         <v>5.6834000000000003E+26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,7 +811,7 @@
         <v>1.3455299999999999E+23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -826,7 +838,7 @@
         <v>1.0240900000000001E+26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -853,12 +865,12 @@
         <v>8.6813E+25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
